--- a/src/main/webapp/resources/sample/제조사등록샘플.xlsx
+++ b/src/main/webapp/resources/sample/제조사등록샘플.xlsx
@@ -16,40 +16,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>텍스트 입력(코드)
-ex. KR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포드</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>KR</x:t>
   </x:si>
   <x:si>
-    <x:t>텍스트 입력
-ex. 포드</x:t>
+    <x:t>기아</x:t>
   </x:si>
   <x:si>
-    <x:t>이미지 입력
-54x54</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">제조사명*
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(텍스트 입력)</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>국가코드*</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">국가코드*
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(텍스트 입력)
+(국가코드표 코드값)</x:t>
+    </x:r>
   </x:si>
   <x:si>
-    <x:t>제조사명*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제조사로고*</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ffff0000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">제조사로고*
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(이미지 삽입)
+(정방형 크기 1MB이하)</x:t>
+    </x:r>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:fonts count="8">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -79,6 +120,12 @@
       <x:name val="돋움"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
     </x:font>
     <x:font>
       <x:name val="돋움"/>
@@ -198,39 +245,39 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -615,24 +662,24 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1737359</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1615439</xdr:rowOff>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 2"/>
+        <xdr:cNvPr id="6" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -645,8 +692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228599" y="2133600"/>
-          <a:ext cx="1943999" cy="1943999"/>
+          <a:off x="762000" y="981075"/>
+          <a:ext cx="933450" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,52 +960,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C3"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H3" activeCellId="0" sqref="H3:H3"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.5" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="21.22265625" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="21.66796875" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="21.22265625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="21.66796875" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="18" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="57.75" customHeight="1">
-      <x:c r="A1" s="1" t="s">
-        <x:v>7</x:v>
+      <x:c r="A1" s="2" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+      <x:c r="B1" s="3" t="s">
+        <x:v>2</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>5</x:v>
+      <x:c r="C1" s="2" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" ht="72" customHeight="1">
-      <x:c r="A2" s="3" t="s">
-        <x:v>4</x:v>
+    <x:row r="2" spans="2:3" ht="69.599999999999994" customHeight="1">
+      <x:c r="B2" s="1" t="s">
+        <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="2:3" ht="133.19999999999999" customHeight="1">
-      <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="3" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="4" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="5" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="6" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="7" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="8" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="9" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="10" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="11" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="12" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="13" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="14" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="15" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="16" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="17" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="18" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="19" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="20" ht="69.599999999999994" customHeight="1"/>
+    <x:row r="21" ht="69.599999999999994" customHeight="1"/>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -975,7 +1030,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -991,7 +1046,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.1"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>